--- a/data/(1,0)/W+++/summary_by_file_odd_even_general.xlsx
+++ b/data/(1,0)/W+++/summary_by_file_odd_even_general.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(1^J0)/degree^Mdistance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(1^J0)/W^M^M^M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4EA913A8D310D22D13193F11595ED87656CCDEAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AE2F1B6-9634-4494-A5E4-0B41EFC1C618}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_00DDF3BCD310521F27FA2B11595ED87656CCD5DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67BDCCA7-2CAF-4534-8CED-3D1B3F0A0830}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Dimension</t>
+  </si>
   <si>
     <t>N</t>
   </si>
@@ -38,10 +41,6 @@
   </si>
   <si>
     <t>짝수 좌표 합 성공률</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,35 +412,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G447"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -458,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -478,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.5</v>
+        <v>0.02</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -501,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.36</v>
+        <v>0.34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.93</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -544,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.119999999999999</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -564,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.53</v>
+        <v>4.42</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -587,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.68</v>
+        <v>5.52</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -607,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.27</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -630,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.36</v>
+        <v>4.84</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -650,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.18</v>
+        <v>5.03</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -673,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.01</v>
+        <v>7.24</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -693,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.190000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -716,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.57</v>
+        <v>7.22</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -736,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.82</v>
+        <v>7.8</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -759,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.39</v>
+        <v>8.49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -779,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.92</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -802,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30.45</v>
+        <v>10.32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -822,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>33.35</v>
+        <v>10.85</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -845,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.06</v>
+        <v>14.41</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -865,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.479999999999997</v>
+        <v>14.11</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -888,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>37.909999999999997</v>
+        <v>13.56</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -908,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>38.979999999999997</v>
+        <v>15.13</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -931,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>42.52</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -951,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>47.94</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -974,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>48.95</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -994,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>49.57</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1017,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>51.28</v>
+        <v>20.54</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1037,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>51.76</v>
+        <v>21.69</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1060,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>57.69</v>
+        <v>23.31</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1080,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>58.14</v>
+        <v>25.75</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1103,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>60.24</v>
+        <v>25.44</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1123,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>67.650000000000006</v>
+        <v>26.85</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1146,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>69.78</v>
+        <v>28.21</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1166,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>72.8</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1189,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>74.599999999999994</v>
+        <v>31.71</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1209,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>78.22</v>
+        <v>33.61</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1232,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>83.49</v>
+        <v>34.57</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1252,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>86.17</v>
+        <v>39.69</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1275,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>82.06</v>
+        <v>37.78</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1295,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>84.92</v>
+        <v>41.5</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1318,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>88.91</v>
+        <v>42.71</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1338,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>91.93</v>
+        <v>45.34</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1361,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>95.84</v>
+        <v>45.2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1381,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>97.29</v>
+        <v>47.23</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1404,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>100.46</v>
+        <v>51.94</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1424,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>109.74</v>
+        <v>55.1</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1447,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>111.91</v>
+        <v>53.07</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1464,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>130.25</v>
+        <v>58.88</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1490,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>121.96</v>
+        <v>61.33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1510,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>121.67</v>
+        <v>61.07</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1533,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>134.05000000000001</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1553,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>137.24</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1576,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>127.15</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1596,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>130.27000000000001</v>
+        <v>73.77</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1619,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>133.52000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -1639,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>139.75</v>
+        <v>81.88</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1662,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>143.71</v>
+        <v>79.98</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -1679,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E59">
-        <v>146.34</v>
+        <v>108.43</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1705,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>145.35</v>
+        <v>82.02</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -1725,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>152.88</v>
+        <v>86.23</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1748,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>160.47999999999999</v>
+        <v>90.49</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -1768,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>160.88999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1791,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>160.55000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1811,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>171.19</v>
+        <v>96.65</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -1834,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>174.38</v>
+        <v>99.73</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -1854,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>177.3</v>
+        <v>102.17</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1877,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>181.11</v>
+        <v>112.15</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -1897,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>187.2</v>
+        <v>108.52</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -1920,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>187.52</v>
+        <v>117.65</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -1940,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>194.25</v>
+        <v>115.52</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1963,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>197.31</v>
+        <v>121.56</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -1983,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>201.35</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2006,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>204.04</v>
+        <v>124.63</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2026,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>208.98</v>
+        <v>131.35</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2046,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E76">
-        <v>215.49</v>
+        <v>143</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2069,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>221.58</v>
+        <v>150.31</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2092,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>222.23</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2109,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E79">
-        <v>229.34</v>
+        <v>174.06</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2135,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>229.58</v>
+        <v>148.94</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2152,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E81">
-        <v>236.37</v>
+        <v>176.81</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2175,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E82">
-        <v>245.75</v>
+        <v>169.84</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2198,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>244.81</v>
+        <v>169.9</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2221,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>255.43</v>
+        <v>168.09</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2238,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>271.3</v>
+        <v>166.49</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2261,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E86">
-        <v>267.56</v>
+        <v>184.84</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2281,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>275.83</v>
+        <v>175.56</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2304,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E88">
-        <v>275.98</v>
+        <v>193.4</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2327,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>278.54000000000002</v>
+        <v>184.96</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2350,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>287.04000000000002</v>
+        <v>190.02</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2370,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>288.49</v>
+        <v>191.28</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2393,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>289.07</v>
+        <v>191.96</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -2413,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>292.49</v>
+        <v>198.59</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2433,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E94">
-        <v>303.77</v>
+        <v>218.3</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -2456,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>308.83</v>
+        <v>209.67</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2479,7 +2478,7 @@
         <v>0.01</v>
       </c>
       <c r="E96">
-        <v>333.27</v>
+        <v>224.37</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -2499,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>328.95</v>
+        <v>224.38</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2519,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E98">
-        <v>360.04</v>
+        <v>235.86</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -2542,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>354.96</v>
+        <v>223.86</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2565,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>346.2</v>
+        <v>233.7</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -2582,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E101">
-        <v>344.99</v>
+        <v>249.46</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2608,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>366.65</v>
+        <v>237.95</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -2628,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>350.06</v>
+        <v>243.95</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2651,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>362.18</v>
+        <v>246.83</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -2668,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>404.08</v>
+        <v>258.45999999999998</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2694,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>379.35</v>
+        <v>254.76</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2714,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>404.94</v>
+        <v>272.45</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2737,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>391.56</v>
+        <v>268.38</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -2757,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>404.22</v>
+        <v>275.54000000000002</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2780,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>400.62</v>
+        <v>283.31</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -2797,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>417.1</v>
+        <v>282.05</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2820,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>436.22</v>
+        <v>289.16000000000003</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -2840,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E113">
-        <v>428.89</v>
+        <v>304.58</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -2866,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>429.7</v>
+        <v>299.48</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -2886,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>450.35</v>
+        <v>307.31</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2909,7 +2908,7 @@
         <v>0.01</v>
       </c>
       <c r="E116">
-        <v>456.31</v>
+        <v>322.92</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -2926,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>451.61</v>
+        <v>314</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2952,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>461.22</v>
+        <v>318.08999999999997</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -2972,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>457.6</v>
+        <v>325.17</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2992,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>494.08</v>
+        <v>331.75</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -3015,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>478.42</v>
+        <v>335.93</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3038,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>501.78</v>
+        <v>341.77</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -3055,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>508.65</v>
+        <v>351.93</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3078,10 +3077,10 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>496.02</v>
+        <v>357.78</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -3101,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>503.48</v>
+        <v>358.57</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -3121,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>517.87</v>
+        <v>363.99</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -3141,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E127">
-        <v>570.9</v>
+        <v>387.07</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -3167,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>529.65</v>
+        <v>373.93</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3184,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>564.04</v>
+        <v>382.76</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3207,10 +3206,10 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E130">
-        <v>570.72</v>
+        <v>402.71</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -3230,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>547.85</v>
+        <v>393.86</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3250,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E132">
-        <v>548.41999999999996</v>
+        <v>422.85</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3270,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>593.13</v>
+        <v>412.57</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -3293,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E134">
-        <v>580.91</v>
+        <v>422.5</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -3313,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>599.67999999999995</v>
+        <v>418.39</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -3339,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>580.66</v>
+        <v>427.53</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -3356,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>616.09</v>
+        <v>434.3</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -3379,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E138">
-        <v>586.99</v>
+        <v>451.67</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3399,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E139">
-        <v>616.35</v>
+        <v>456.84</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -3422,10 +3421,10 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>612.86</v>
+        <v>452.41</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -3442,10 +3441,10 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>623.63</v>
+        <v>465.78</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3465,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>654.22</v>
+        <v>467.63</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -3485,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>673.53</v>
+        <v>475.65</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -3508,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>652.42999999999995</v>
+        <v>480.69</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -3528,10 +3527,10 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>692.65</v>
+        <v>489.87</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -3551,10 +3550,10 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>687.02</v>
+        <v>506</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -3571,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>700.52</v>
+        <v>504.68</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -3594,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>726.26</v>
+        <v>515.01</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -3614,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E149">
-        <v>695.12</v>
+        <v>527.88</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -3637,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E150">
-        <v>724.47</v>
+        <v>542.73</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -3657,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="E151">
-        <v>903.35</v>
+        <v>540.26</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -3680,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>726.75</v>
+        <v>546.16999999999996</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -3700,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>733.26</v>
+        <v>560.26</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -3726,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>723.72</v>
+        <v>555.16</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -3743,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E155">
-        <v>761.47</v>
+        <v>572.23</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -3769,7 +3768,7 @@
         <v>0.02</v>
       </c>
       <c r="E156">
-        <v>740.83</v>
+        <v>590.26</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -3786,10 +3785,10 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>774.71</v>
+        <v>573.4</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -3809,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>758.53</v>
+        <v>596.22</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -3832,7 +3831,7 @@
         <v>0.02</v>
       </c>
       <c r="E159">
-        <v>788.58</v>
+        <v>629.86</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -3852,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E160">
-        <v>799.18</v>
+        <v>716.06</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -3872,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E161">
-        <v>781.6</v>
+        <v>687.12</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -3895,10 +3894,10 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E162">
-        <v>847.27</v>
+        <v>748.48</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -3915,10 +3914,10 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E163">
-        <v>833.55</v>
+        <v>700.19</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -3938,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E164">
-        <v>846.45</v>
+        <v>750.28</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -3958,10 +3957,10 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E165">
-        <v>896.14</v>
+        <v>699.47</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -3981,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E166">
-        <v>852.99</v>
+        <v>695.52</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -4001,10 +4000,10 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E167">
-        <v>903.91</v>
+        <v>740.08</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4024,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="E168">
-        <v>889.11</v>
+        <v>720.54</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -4044,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="E169">
-        <v>940.8</v>
+        <v>708.28</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -4067,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E170">
-        <v>858.74</v>
+        <v>802.14</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -4087,10 +4086,10 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E171">
-        <v>917.72</v>
+        <v>761.46</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -4110,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E172">
-        <v>945.91</v>
+        <v>893.41</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -4130,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>0.1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E173">
-        <v>896.37</v>
+        <v>975.36</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -4153,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="E174">
-        <v>888.19</v>
+        <v>874.05</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4173,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E175">
-        <v>911.15</v>
+        <v>829.4</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4196,10 +4195,10 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>0.2424242424242424</v>
+        <v>0.18</v>
       </c>
       <c r="E176">
-        <v>956.38383838383834</v>
+        <v>869.66</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -4216,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E177">
-        <v>962.58</v>
+        <v>883.5</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -4239,10 +4238,10 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E178">
-        <v>962.23</v>
+        <v>882.43</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -4259,10 +4258,10 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="E179">
-        <v>1012.25</v>
+        <v>895.82</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -4282,10 +4281,10 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="E180">
-        <v>1074.97</v>
+        <v>983.86</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -4305,7 +4304,7 @@
         <v>0.13</v>
       </c>
       <c r="E181">
-        <v>961.7</v>
+        <v>873.92</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -4325,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E182">
-        <v>956.59</v>
+        <v>926.51</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -4345,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="E183">
-        <v>1040.8699999999999</v>
+        <v>848.08</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -4368,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="E184">
-        <v>1044.49</v>
+        <v>946.32</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -4388,10 +4387,10 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="E185">
-        <v>1019.31</v>
+        <v>975.96</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4411,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="E186">
-        <v>1055.57</v>
+        <v>880.49</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -4431,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="E187">
-        <v>1020.4</v>
+        <v>980.2</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -4454,10 +4453,10 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="E188">
-        <v>1016.86</v>
+        <v>970.76</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -4474,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>0.74</v>
+        <v>0.09</v>
       </c>
       <c r="E189">
-        <v>1034.4100000000001</v>
+        <v>896.93</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -4497,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="E190">
-        <v>1053.42</v>
+        <v>943.95</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -4517,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>0.98</v>
+        <v>0.26</v>
       </c>
       <c r="E191">
-        <v>1062.28</v>
+        <v>1052.3599999999999</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -4540,10 +4539,10 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>0.98</v>
+        <v>0.2</v>
       </c>
       <c r="E192">
-        <v>1064.18</v>
+        <v>995.87</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -4560,10 +4559,10 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="E193">
-        <v>1060.73</v>
+        <v>978.31</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -4583,10 +4582,10 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E194">
-        <v>1076.77</v>
+        <v>1058.44</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -4603,10 +4602,10 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="E195">
-        <v>1099</v>
+        <v>1123.8399999999999</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -4626,10 +4625,10 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E196">
-        <v>1112.74</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -4646,10 +4645,10 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="E197">
-        <v>1115.77</v>
+        <v>1248.8900000000001</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -4672,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="E198">
-        <v>1112.6199999999999</v>
+        <v>1725.9</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -4689,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E199">
-        <v>1133.93</v>
+        <v>1042.04</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -4712,10 +4711,10 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E200">
-        <v>1138.26</v>
+        <v>1109.6300000000001</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -4735,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -4755,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>8</v>
+        <v>10.77</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -4778,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>18.760000000000002</v>
+        <v>27.95</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -4798,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>29.19</v>
+        <v>43.66</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -4815,16 +4814,16 @@
         <v>5</v>
       </c>
       <c r="C205">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>61.71</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="G205">
-        <v>0.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -4835,19 +4834,19 @@
         <v>6</v>
       </c>
       <c r="C206">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>83.75</v>
+        <v>116.8</v>
       </c>
       <c r="F206">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G206">
-        <v>0.52727272727272723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -4858,16 +4857,16 @@
         <v>7</v>
       </c>
       <c r="C207">
-        <v>0.28999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>113.82</v>
+        <v>158.06</v>
       </c>
       <c r="G207">
-        <v>0.28999999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -4878,19 +4877,19 @@
         <v>8</v>
       </c>
       <c r="C208">
-        <v>0.27</v>
+        <v>0.97</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>149.25</v>
+        <v>204.36</v>
       </c>
       <c r="F208">
-        <v>0.32727272727272733</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G208">
-        <v>0.2</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -4901,16 +4900,16 @@
         <v>9</v>
       </c>
       <c r="C209">
-        <v>0.48</v>
+        <v>0.95</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>181.76</v>
+        <v>285.64999999999998</v>
       </c>
       <c r="G209">
-        <v>0.48</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -4921,19 +4920,19 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>0.15</v>
+        <v>0.89</v>
       </c>
       <c r="D210">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>271.06</v>
+        <v>406.48</v>
       </c>
       <c r="F210">
-        <v>0.119047619047619</v>
+        <v>0.83720930232558144</v>
       </c>
       <c r="G210">
-        <v>0.17241379310344829</v>
+        <v>0.92982456140350878</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -4944,16 +4943,16 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E211">
-        <v>259.69</v>
+        <v>553.85</v>
       </c>
       <c r="G211">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -4964,19 +4963,19 @@
         <v>12</v>
       </c>
       <c r="C212">
-        <v>0.01</v>
+        <v>0.89</v>
       </c>
       <c r="D212">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E212">
-        <v>312.35000000000002</v>
+        <v>499.3</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="G212">
-        <v>1.785714285714286E-2</v>
+        <v>0.90384615384615385</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -4987,16 +4986,16 @@
         <v>13</v>
       </c>
       <c r="C213">
-        <v>0.19</v>
+        <v>0.71</v>
       </c>
       <c r="D213">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="E213">
-        <v>383.95</v>
+        <v>786.52</v>
       </c>
       <c r="G213">
-        <v>0.19</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5007,19 +5006,19 @@
         <v>14</v>
       </c>
       <c r="C214">
-        <v>0.01</v>
+        <v>0.67</v>
       </c>
       <c r="D214">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="E214">
-        <v>440.44</v>
+        <v>911.38</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>0.71153846153846156</v>
       </c>
       <c r="G214">
-        <v>1.9607843137254902E-2</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5030,16 +5029,16 @@
         <v>15</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="D215">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="E215">
-        <v>504.54</v>
+        <v>1276.26</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -5050,19 +5049,19 @@
         <v>16</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="D216">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E216">
-        <v>511.86</v>
+        <v>987.5</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>0.77192982456140347</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -5073,16 +5072,16 @@
         <v>17</v>
       </c>
       <c r="C217">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="D217">
-        <v>0.05</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E217">
-        <v>649.22</v>
+        <v>1672.21</v>
       </c>
       <c r="G217">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -5093,19 +5092,19 @@
         <v>18</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="D218">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="E218">
-        <v>693.13</v>
+        <v>1524.82</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>0.6607142857142857</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -5116,16 +5115,16 @@
         <v>19</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D219">
-        <v>0.09</v>
+        <v>1.66</v>
       </c>
       <c r="E219">
-        <v>775.51</v>
+        <v>2043.83</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -5136,19 +5135,19 @@
         <v>20</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="D220">
-        <v>0.22</v>
+        <v>1.54</v>
       </c>
       <c r="E220">
-        <v>960.84</v>
+        <v>1786.13</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>0.68518518518518523</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -5159,16 +5158,16 @@
         <v>21</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D221">
-        <v>0.45</v>
+        <v>2.36</v>
       </c>
       <c r="E221">
-        <v>1080.67</v>
+        <v>2845.36</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -5179,19 +5178,19 @@
         <v>22</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D222">
-        <v>0.32</v>
+        <v>2.19</v>
       </c>
       <c r="E222">
-        <v>1009.16</v>
+        <v>2695.18</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>0.47272727272727272</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -5202,16 +5201,16 @@
         <v>23</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D223">
-        <v>0.64</v>
+        <v>2.82</v>
       </c>
       <c r="E223">
-        <v>1165.4100000000001</v>
+        <v>3405.4</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5222,19 +5221,19 @@
         <v>24</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D224">
-        <v>0.88</v>
+        <v>2.06</v>
       </c>
       <c r="E224">
-        <v>1297.98</v>
+        <v>2763.54</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -5245,16 +5244,16 @@
         <v>25</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D225">
-        <v>0.99</v>
+        <v>3.64</v>
       </c>
       <c r="E225">
-        <v>1356.34</v>
+        <v>4176.3500000000004</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -5265,19 +5264,19 @@
         <v>26</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="D226">
-        <v>1.1599999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="E226">
-        <v>1480.94</v>
+        <v>3690.39</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -5288,16 +5287,16 @@
         <v>27</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D227">
-        <v>1.1499999999999999</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E227">
-        <v>1582.11</v>
+        <v>4854.55</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -5308,19 +5307,19 @@
         <v>28</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="D228">
-        <v>1.2</v>
+        <v>3.42</v>
       </c>
       <c r="E228">
-        <v>1711.49</v>
+        <v>3991.2</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>0.71153846153846156</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -5331,16 +5330,16 @@
         <v>29</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D229">
-        <v>1.42</v>
+        <v>5.65</v>
       </c>
       <c r="E229">
-        <v>2037.06</v>
+        <v>6228.74</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -5351,19 +5350,19 @@
         <v>30</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="D230">
-        <v>1.36</v>
+        <v>4.59</v>
       </c>
       <c r="E230">
-        <v>1992.31</v>
+        <v>4971.0200000000004</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>0.51923076923076927</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -5374,16 +5373,16 @@
         <v>31</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D231">
-        <v>1.36</v>
+        <v>6.09</v>
       </c>
       <c r="E231">
-        <v>2024.94</v>
+        <v>6488.32</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -5394,19 +5393,19 @@
         <v>32</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="D232">
-        <v>1.66</v>
+        <v>4.47</v>
       </c>
       <c r="E232">
-        <v>2199.84</v>
+        <v>5060.7</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>0.67924528301886788</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -5417,16 +5416,16 @@
         <v>33</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D233">
-        <v>2.11</v>
+        <v>8.6</v>
       </c>
       <c r="E233">
-        <v>2555.69</v>
+        <v>9080.52</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -5437,19 +5436,19 @@
         <v>34</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="D234">
-        <v>2.09</v>
+        <v>6.59</v>
       </c>
       <c r="E234">
-        <v>2437.3200000000002</v>
+        <v>7002.22</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>0.49090909090909091</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -5460,16 +5459,16 @@
         <v>35</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D235">
-        <v>2.37</v>
+        <v>8.61</v>
       </c>
       <c r="E235">
-        <v>2809.89</v>
+        <v>9105.2099999999991</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -5480,19 +5479,19 @@
         <v>36</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="D236">
-        <v>2.4</v>
+        <v>5.87</v>
       </c>
       <c r="E236">
-        <v>2804.87</v>
+        <v>6457.36</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>0.76595744680851063</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -5503,16 +5502,16 @@
         <v>37</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D237">
-        <v>2.77</v>
+        <v>10.46</v>
       </c>
       <c r="E237">
-        <v>3275.25</v>
+        <v>10926.95</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -5523,19 +5522,19 @@
         <v>38</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D238">
-        <v>2.57</v>
+        <v>8</v>
       </c>
       <c r="E238">
-        <v>3191.63</v>
+        <v>8533.43</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>0.51020408163265307</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -5546,16 +5545,16 @@
         <v>39</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D239">
-        <v>2.71</v>
+        <v>11.28</v>
       </c>
       <c r="E239">
-        <v>3261.74</v>
+        <v>11807.73</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -5566,19 +5565,19 @@
         <v>40</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D240">
-        <v>3.05</v>
+        <v>9.02</v>
       </c>
       <c r="E240">
-        <v>3556.44</v>
+        <v>9465.8700000000008</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>0.62903225806451613</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -5589,16 +5588,16 @@
         <v>41</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D241">
-        <v>3.54</v>
+        <v>13.35</v>
       </c>
       <c r="E241">
-        <v>4035.37</v>
+        <v>13830.22</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -5609,19 +5608,19 @@
         <v>42</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D242">
-        <v>3.39</v>
+        <v>10.57</v>
       </c>
       <c r="E242">
-        <v>3799.45</v>
+        <v>11080.27</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -5632,16 +5631,16 @@
         <v>43</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D243">
-        <v>3.6</v>
+        <v>14.77</v>
       </c>
       <c r="E243">
-        <v>4136.4399999999996</v>
+        <v>15283.8</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -5652,19 +5651,19 @@
         <v>44</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="D244">
-        <v>4.09</v>
+        <v>10.79</v>
       </c>
       <c r="E244">
-        <v>4648.92</v>
+        <v>11351.89</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>0.64150943396226412</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -5675,16 +5674,16 @@
         <v>45</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D245">
-        <v>4.34</v>
+        <v>16.72</v>
       </c>
       <c r="E245">
-        <v>4900.1000000000004</v>
+        <v>17233.97</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -5695,19 +5694,19 @@
         <v>46</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D246">
-        <v>4.09</v>
+        <v>13.54</v>
       </c>
       <c r="E246">
-        <v>4598.07</v>
+        <v>14066.03</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>0.48148148148148151</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -5718,16 +5717,16 @@
         <v>47</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="D247">
-        <v>4.4800000000000004</v>
+        <v>17.32</v>
       </c>
       <c r="E247">
-        <v>4946.43</v>
+        <v>17850.59</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -5738,19 +5737,19 @@
         <v>48</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D248">
-        <v>5.28</v>
+        <v>14.72</v>
       </c>
       <c r="E248">
-        <v>5743.99</v>
+        <v>15213.36</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -5761,16 +5760,16 @@
         <v>49</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D249">
-        <v>5.56</v>
+        <v>21.49</v>
       </c>
       <c r="E249">
-        <v>6030.1</v>
+        <v>21965.51</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -5781,19 +5780,19 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D250">
-        <v>4.8099999999999996</v>
+        <v>15.72</v>
       </c>
       <c r="E250">
-        <v>5329.77</v>
+        <v>16216.4</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>0.56603773584905659</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -5804,16 +5803,16 @@
         <v>51</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="D251">
-        <v>5.21</v>
+        <v>21.38</v>
       </c>
       <c r="E251">
-        <v>5777.31</v>
+        <v>21796.39</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -5824,19 +5823,19 @@
         <v>52</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="D252">
-        <v>5.62</v>
+        <v>15.88</v>
       </c>
       <c r="E252">
-        <v>6141.26</v>
+        <v>16461.37</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -5847,16 +5846,16 @@
         <v>53</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D253">
-        <v>6.58</v>
+        <v>25.97</v>
       </c>
       <c r="E253">
-        <v>7063.33</v>
+        <v>26473.95</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -5867,19 +5866,19 @@
         <v>54</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D254">
-        <v>6.24</v>
+        <v>20.36</v>
       </c>
       <c r="E254">
-        <v>6769.34</v>
+        <v>20907.64</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>0.48214285714285721</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -5890,16 +5889,16 @@
         <v>55</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D255">
-        <v>6.39</v>
+        <v>26.95</v>
       </c>
       <c r="E255">
-        <v>6867.73</v>
+        <v>27413.19</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -5910,19 +5909,19 @@
         <v>56</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="D256">
-        <v>6.43</v>
+        <v>18.16</v>
       </c>
       <c r="E256">
-        <v>6923.96</v>
+        <v>18700.87</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>0.7678571428571429</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -5933,16 +5932,16 @@
         <v>57</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D257">
-        <v>7.49</v>
+        <v>32.28</v>
       </c>
       <c r="E257">
-        <v>8022.54</v>
+        <v>32756.36</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -5953,19 +5952,19 @@
         <v>58</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D258">
-        <v>7.36</v>
+        <v>22.64</v>
       </c>
       <c r="E258">
-        <v>7774.89</v>
+        <v>23136.61</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -5976,16 +5975,16 @@
         <v>59</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D259">
-        <v>7.24</v>
+        <v>31.11</v>
       </c>
       <c r="E259">
-        <v>7752.41</v>
+        <v>31650.12</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -5996,19 +5995,19 @@
         <v>60</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D260">
-        <v>7.69</v>
+        <v>25.48</v>
       </c>
       <c r="E260">
-        <v>8199.2199999999993</v>
+        <v>25972.05</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>0.46938775510204078</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -6019,16 +6018,16 @@
         <v>61</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D261">
-        <v>9.2200000000000006</v>
+        <v>37.04</v>
       </c>
       <c r="E261">
-        <v>9711.24</v>
+        <v>37537.99</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -6039,19 +6038,19 @@
         <v>62</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="D262">
-        <v>8.9600000000000009</v>
+        <v>26.61</v>
       </c>
       <c r="E262">
-        <v>9449.9</v>
+        <v>27122.22</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -6062,16 +6061,16 @@
         <v>63</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D263">
-        <v>9.14</v>
+        <v>37.04</v>
       </c>
       <c r="E263">
-        <v>9630.34</v>
+        <v>37560.81</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -6082,19 +6081,19 @@
         <v>64</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D264">
-        <v>9.06</v>
+        <v>28.5</v>
       </c>
       <c r="E264">
-        <v>9577.91</v>
+        <v>28987.03</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -6105,16 +6104,16 @@
         <v>65</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D265">
-        <v>10.07</v>
+        <v>43.56</v>
       </c>
       <c r="E265">
-        <v>10545.07</v>
+        <v>44055.93</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -6125,19 +6124,19 @@
         <v>66</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="D266">
-        <v>9.49</v>
+        <v>32.51</v>
       </c>
       <c r="E266">
-        <v>9981.33</v>
+        <v>32950.76</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>0.59523809523809523</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -6148,16 +6147,16 @@
         <v>67</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D267">
-        <v>9.57</v>
+        <v>45.56</v>
       </c>
       <c r="E267">
-        <v>10119.969999999999</v>
+        <v>46032.29</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -6168,19 +6167,19 @@
         <v>68</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D268">
-        <v>10.9</v>
+        <v>34.06</v>
       </c>
       <c r="E268">
-        <v>11391.06</v>
+        <v>34579.410000000003</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>0.53488372093023251</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -6191,16 +6190,16 @@
         <v>69</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D269">
-        <v>11.22</v>
+        <v>51.18</v>
       </c>
       <c r="E269">
-        <v>11735.28</v>
+        <v>51700.2</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -6211,19 +6210,19 @@
         <v>70</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D270">
-        <v>10.85</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="E270">
-        <v>11323.44</v>
+        <v>38567.449999999997</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>0.53191489361702127</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -6234,16 +6233,16 @@
         <v>71</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D271">
-        <v>11</v>
+        <v>51.7</v>
       </c>
       <c r="E271">
-        <v>11486.68</v>
+        <v>52135.14</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -6254,19 +6253,19 @@
         <v>72</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="D272">
-        <v>11.87</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="E272">
-        <v>12319.06</v>
+        <v>39617.949999999997</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>0.68627450980392157</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -6277,16 +6276,16 @@
         <v>73</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D273">
-        <v>12.37</v>
+        <v>57.35</v>
       </c>
       <c r="E273">
-        <v>12902.43</v>
+        <v>57897.63</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -6297,19 +6296,19 @@
         <v>74</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="D274">
-        <v>11.75</v>
+        <v>46.38</v>
       </c>
       <c r="E274">
-        <v>12250.49</v>
+        <v>46900.55</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>0.48936170212765961</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -6320,16 +6319,16 @@
         <v>75</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D275">
-        <v>12.48</v>
+        <v>57.68</v>
       </c>
       <c r="E275">
-        <v>12984.06</v>
+        <v>58164.75</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -6340,19 +6339,19 @@
         <v>76</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="D276">
-        <v>13.81</v>
+        <v>46.55</v>
       </c>
       <c r="E276">
-        <v>14299.03</v>
+        <v>47066.61</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>0.62962962962962965</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -6363,16 +6362,16 @@
         <v>77</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D277">
-        <v>14.89</v>
+        <v>67.37</v>
       </c>
       <c r="E277">
-        <v>15401.31</v>
+        <v>67879.5</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -6383,19 +6382,19 @@
         <v>78</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D278">
-        <v>13.31</v>
+        <v>48.47</v>
       </c>
       <c r="E278">
-        <v>13794.33</v>
+        <v>48975.88</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -6406,16 +6405,16 @@
         <v>79</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D279">
-        <v>13.8</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E279">
-        <v>14289.23</v>
+        <v>66876.11</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -6426,19 +6425,19 @@
         <v>80</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D280">
-        <v>15.05</v>
+        <v>50.7</v>
       </c>
       <c r="E280">
-        <v>15529.58</v>
+        <v>51209.47</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>0.63265306122448983</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>0.62745098039215685</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -6449,16 +6448,16 @@
         <v>81</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D281">
-        <v>15.76</v>
+        <v>76.02</v>
       </c>
       <c r="E281">
-        <v>16283.1</v>
+        <v>76518.679999999993</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -6469,19 +6468,19 @@
         <v>82</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D282">
-        <v>14.8</v>
+        <v>53.32</v>
       </c>
       <c r="E282">
-        <v>15331.74</v>
+        <v>53823.8</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -6492,16 +6491,16 @@
         <v>83</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D283">
-        <v>15.26</v>
+        <v>75.72</v>
       </c>
       <c r="E283">
-        <v>15787.98</v>
+        <v>76247.66</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -6512,19 +6511,19 @@
         <v>84</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="D284">
-        <v>16.43</v>
+        <v>55.69</v>
       </c>
       <c r="E284">
-        <v>16920.419999999998</v>
+        <v>56203.42</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -6535,16 +6534,16 @@
         <v>85</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D285">
-        <v>18.98</v>
+        <v>85.41</v>
       </c>
       <c r="E285">
-        <v>19456.28</v>
+        <v>85892.1</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -6555,19 +6554,19 @@
         <v>86</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D286">
-        <v>17.260000000000002</v>
+        <v>63.05</v>
       </c>
       <c r="E286">
-        <v>17760.73</v>
+        <v>63577.36</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>0.54385964912280704</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>0.7441860465116279</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -6578,16 +6577,16 @@
         <v>87</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D287">
-        <v>17.16</v>
+        <v>85.03</v>
       </c>
       <c r="E287">
-        <v>17649.740000000002</v>
+        <v>85496.01</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -6598,19 +6597,19 @@
         <v>88</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D288">
-        <v>17.75</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="E288">
-        <v>18238.03</v>
+        <v>66059.64</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.63829787234042556</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -6621,16 +6620,16 @@
         <v>89</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D289">
-        <v>19.84</v>
+        <v>97.04</v>
       </c>
       <c r="E289">
-        <v>20301.759999999998</v>
+        <v>97474.97</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -6641,19 +6640,19 @@
         <v>90</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D290">
-        <v>18.02</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="E290">
-        <v>18465.79</v>
+        <v>75791.31</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>0.49019607843137247</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.59183673469387754</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -6664,16 +6663,16 @@
         <v>91</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D291">
-        <v>19.46</v>
+        <v>97.18</v>
       </c>
       <c r="E291">
-        <v>19969.830000000002</v>
+        <v>97648.71</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -6684,19 +6683,19 @@
         <v>92</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="D292">
-        <v>19.75</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="E292">
-        <v>20225.29</v>
+        <v>76257.59</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -6707,16 +6706,16 @@
         <v>93</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D293">
-        <v>21.88</v>
+        <v>110.4</v>
       </c>
       <c r="E293">
-        <v>22368.34</v>
+        <v>110958.24</v>
       </c>
       <c r="G293">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -6727,19 +6726,19 @@
         <v>94</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D294">
-        <v>21.22</v>
+        <v>80.87</v>
       </c>
       <c r="E294">
-        <v>21714.89</v>
+        <v>81372.25</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>0.63461538461538458</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -6750,16 +6749,16 @@
         <v>95</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D295">
-        <v>20.59</v>
+        <v>110.19</v>
       </c>
       <c r="E295">
-        <v>21079.96</v>
+        <v>110711.95</v>
       </c>
       <c r="G295">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -6770,19 +6769,19 @@
         <v>96</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="D296">
-        <v>20.64</v>
+        <v>83.55</v>
       </c>
       <c r="E296">
-        <v>21148.53</v>
+        <v>84044.72</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>0.62264150943396224</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -6793,16 +6792,16 @@
         <v>97</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D297">
-        <v>24.1</v>
+        <v>122.96</v>
       </c>
       <c r="E297">
-        <v>24612.36</v>
+        <v>123466.29</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -6813,19 +6812,19 @@
         <v>98</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D298">
-        <v>23.01</v>
+        <v>93.71</v>
       </c>
       <c r="E298">
-        <v>23530.29</v>
+        <v>94186.240000000005</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="G298">
-        <v>0</v>
+        <v>0.59183673469387754</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -6836,16 +6835,16 @@
         <v>99</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D299">
-        <v>22.99</v>
+        <v>122.9</v>
       </c>
       <c r="E299">
-        <v>23555.58</v>
+        <v>123351.99</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -6862,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -6882,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>20.11</v>
+        <v>3.42</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -6905,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>52.73</v>
+        <v>16.55</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -6919,19 +6918,19 @@
         <v>4</v>
       </c>
       <c r="C303">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="D303">
         <v>0</v>
       </c>
       <c r="E303">
-        <v>113.66</v>
+        <v>51.08</v>
       </c>
       <c r="F303">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G303">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -6942,16 +6941,16 @@
         <v>5</v>
       </c>
       <c r="C304">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D304">
         <v>0</v>
       </c>
       <c r="E304">
-        <v>213.44</v>
+        <v>173.67</v>
       </c>
       <c r="G304">
-        <v>0.51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -6962,19 +6961,19 @@
         <v>6</v>
       </c>
       <c r="C305">
-        <v>0.12</v>
+        <v>0.87</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E305">
-        <v>368.68</v>
+        <v>965.39</v>
       </c>
       <c r="F305">
-        <v>0.13043478260869559</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="G305">
-        <v>0.1111111111111111</v>
+        <v>0.84313725490196079</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -6985,16 +6984,16 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="D306">
-        <v>0.01</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E306">
-        <v>595.59</v>
+        <v>2500.65</v>
       </c>
       <c r="G306">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -7005,19 +7004,19 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="D307">
-        <v>0.05</v>
+        <v>4.42</v>
       </c>
       <c r="E307">
-        <v>907.27</v>
+        <v>4908.63</v>
       </c>
       <c r="F307">
-        <v>5.2631578947368418E-2</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="G307">
-        <v>4.6511627906976737E-2</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -7028,16 +7027,16 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>8.06</v>
       </c>
       <c r="E308">
-        <v>1298.33</v>
+        <v>8534.2900000000009</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -7048,19 +7047,19 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D309">
-        <v>1.1499999999999999</v>
+        <v>12.75</v>
       </c>
       <c r="E309">
-        <v>1858.69</v>
+        <v>13272.2</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>1.785714285714286E-2</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -7074,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>1.88</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="E310">
-        <v>2315.88</v>
+        <v>17982.84</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -7094,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>2.63</v>
+        <v>27.96</v>
       </c>
       <c r="E311">
-        <v>3088.87</v>
+        <v>28416.04</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -7117,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>3.53</v>
+        <v>41.17</v>
       </c>
       <c r="E312">
-        <v>4041.53</v>
+        <v>41644.06</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -7137,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>4.57</v>
+        <v>45.9</v>
       </c>
       <c r="E313">
-        <v>5079.88</v>
+        <v>46406.23</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -7160,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>5.73</v>
+        <v>58.24</v>
       </c>
       <c r="E314">
-        <v>6266.91</v>
+        <v>58770.239999999998</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -7180,10 +7179,10 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>7.31</v>
+        <v>84.78</v>
       </c>
       <c r="E315">
-        <v>7799.97</v>
+        <v>85289.25</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -7203,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>9.25</v>
+        <v>114.45</v>
       </c>
       <c r="E316">
-        <v>9717.08</v>
+        <v>114889.14</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -7223,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>10.86</v>
+        <v>111.36</v>
       </c>
       <c r="E317">
-        <v>11392.12</v>
+        <v>111834.31</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -7246,10 +7245,10 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>13.33</v>
+        <v>145.65</v>
       </c>
       <c r="E318">
-        <v>13816.54</v>
+        <v>146139.74</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -7266,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>16.04</v>
+        <v>174.53</v>
       </c>
       <c r="E319">
-        <v>16534.79</v>
+        <v>175037.84</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -7289,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>18.72</v>
+        <v>224.69</v>
       </c>
       <c r="E320">
-        <v>19197.240000000002</v>
+        <v>225205.82</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -7309,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>22.31</v>
+        <v>245.12</v>
       </c>
       <c r="E321">
-        <v>22824.74</v>
+        <v>245614.95</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -7332,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>25.98</v>
+        <v>284.61</v>
       </c>
       <c r="E322">
-        <v>26466.95</v>
+        <v>285121.78999999998</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -7352,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>31.42</v>
+        <v>314.58</v>
       </c>
       <c r="E323">
-        <v>31935.87</v>
+        <v>315059.34000000003</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -7375,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>35.159999999999997</v>
+        <v>355.37</v>
       </c>
       <c r="E324">
-        <v>35644.31</v>
+        <v>355850.23999999999</v>
       </c>
       <c r="G324">
         <v>0</v>
@@ -7395,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>39.979999999999997</v>
+        <v>405.24</v>
       </c>
       <c r="E325">
-        <v>40439.769999999997</v>
+        <v>405687.69</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -7418,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>46.12</v>
+        <v>439.79</v>
       </c>
       <c r="E326">
-        <v>46634.58</v>
+        <v>440281.69</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -7438,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>53.41</v>
+        <v>466.14</v>
       </c>
       <c r="E327">
-        <v>53945.38</v>
+        <v>466612.15</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -7461,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>60.43</v>
+        <v>520.96</v>
       </c>
       <c r="E328">
-        <v>60905.06</v>
+        <v>521468.4</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -7481,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>65.7</v>
+        <v>596.84</v>
       </c>
       <c r="E329">
-        <v>66193.990000000005</v>
+        <v>597340.31000000006</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7504,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>75.459999999999994</v>
+        <v>654.1</v>
       </c>
       <c r="E330">
-        <v>76024.490000000005</v>
+        <v>654619.17000000004</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -7524,10 +7523,10 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>84</v>
+        <v>759.26</v>
       </c>
       <c r="E331">
-        <v>84504.31</v>
+        <v>759726.85</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7547,10 +7546,10 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>87.53</v>
+        <v>815</v>
       </c>
       <c r="E332">
-        <v>88004.06</v>
+        <v>815478.26</v>
       </c>
       <c r="G332">
         <v>0</v>
@@ -7567,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>103.15</v>
+        <v>942.62</v>
       </c>
       <c r="E333">
-        <v>103634.68</v>
+        <v>943089.94</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7590,10 +7589,10 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>111.07</v>
+        <v>967.18</v>
       </c>
       <c r="E334">
-        <v>111580.94</v>
+        <v>967643.86</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -7610,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>126.65</v>
+        <v>1103.05</v>
       </c>
       <c r="E335">
-        <v>127150.36</v>
+        <v>1103557.72</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7633,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>129.53</v>
+        <v>1128.0999999999999</v>
       </c>
       <c r="E336">
-        <v>130022.21</v>
+        <v>1128556.82</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -7653,10 +7652,10 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>148.65</v>
+        <v>1287.8900000000001</v>
       </c>
       <c r="E337">
-        <v>149195.45000000001</v>
+        <v>1288388.72</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7676,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>149.68</v>
+        <v>1382.39</v>
       </c>
       <c r="E338">
-        <v>150173.01999999999</v>
+        <v>1382878.93</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -7696,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>180.73</v>
+        <v>1570.61</v>
       </c>
       <c r="E339">
-        <v>181198.18</v>
+        <v>1571092.67</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7719,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>169.53</v>
+        <v>1806.7</v>
       </c>
       <c r="E340">
-        <v>169996.66</v>
+        <v>1807165.95</v>
       </c>
       <c r="G340">
         <v>0</v>
@@ -7739,10 +7738,10 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>198.1</v>
+        <v>2037.25</v>
       </c>
       <c r="E341">
-        <v>198600.02</v>
+        <v>2037747.2</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7762,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>202.61</v>
+        <v>1945.21</v>
       </c>
       <c r="E342">
-        <v>203120.94</v>
+        <v>1945729.42</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -7782,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>216.26</v>
+        <v>2184.14</v>
       </c>
       <c r="E343">
-        <v>216790.19</v>
+        <v>2184634.5</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7805,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>226.58</v>
+        <v>1941.51</v>
       </c>
       <c r="E344">
-        <v>227066.94</v>
+        <v>1942038.52</v>
       </c>
       <c r="G344">
         <v>0</v>
@@ -7825,10 +7824,10 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>254.66</v>
+        <v>2182.15</v>
       </c>
       <c r="E345">
-        <v>255159.98</v>
+        <v>2182645.6</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7848,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="D346">
-        <v>264.79000000000002</v>
+        <v>2254.4499999999998</v>
       </c>
       <c r="E346">
-        <v>265245.74</v>
+        <v>2254965.19</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -7868,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>293.33</v>
+        <v>2529.4699999999998</v>
       </c>
       <c r="E347">
-        <v>293847.39</v>
+        <v>2529998.08</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7891,2148 +7890,20 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>281.43</v>
+        <v>2614.4</v>
       </c>
       <c r="E348">
-        <v>281888.23</v>
+        <v>2614855.21</v>
       </c>
       <c r="G348">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>4</v>
-      </c>
-      <c r="B349">
-        <v>50</v>
-      </c>
-      <c r="C349">
-        <v>0</v>
-      </c>
-      <c r="D349">
-        <v>322.82</v>
-      </c>
-      <c r="E349">
-        <v>323389.62</v>
-      </c>
-      <c r="F349">
-        <v>0</v>
-      </c>
-      <c r="G349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A350">
-        <v>4</v>
-      </c>
-      <c r="B350">
-        <v>51</v>
-      </c>
-      <c r="C350">
-        <v>0</v>
-      </c>
-      <c r="D350">
-        <v>320.93</v>
-      </c>
-      <c r="E350">
-        <v>321383.76</v>
-      </c>
-      <c r="G350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A351">
-        <v>4</v>
-      </c>
-      <c r="B351">
-        <v>52</v>
-      </c>
-      <c r="C351">
-        <v>0</v>
-      </c>
-      <c r="D351">
-        <v>397.75</v>
-      </c>
-      <c r="E351">
-        <v>398302.31</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-      <c r="G351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>4</v>
-      </c>
-      <c r="B352">
-        <v>53</v>
-      </c>
-      <c r="C352">
-        <v>0</v>
-      </c>
-      <c r="D352">
-        <v>357.52</v>
-      </c>
-      <c r="E352">
-        <v>358037.56</v>
-      </c>
-      <c r="G352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>4</v>
-      </c>
-      <c r="B353">
-        <v>54</v>
-      </c>
-      <c r="C353">
-        <v>0</v>
-      </c>
-      <c r="D353">
-        <v>411.92</v>
-      </c>
-      <c r="E353">
-        <v>412424.89</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-      <c r="G353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>4</v>
-      </c>
-      <c r="B354">
-        <v>55</v>
-      </c>
-      <c r="C354">
-        <v>0</v>
-      </c>
-      <c r="D354">
-        <v>407.71</v>
-      </c>
-      <c r="E354">
-        <v>408213.84</v>
-      </c>
-      <c r="G354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A355">
-        <v>4</v>
-      </c>
-      <c r="B355">
-        <v>56</v>
-      </c>
-      <c r="C355">
-        <v>0</v>
-      </c>
-      <c r="D355">
-        <v>466.6</v>
-      </c>
-      <c r="E355">
-        <v>467063.01</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-      <c r="G355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A356">
-        <v>4</v>
-      </c>
-      <c r="B356">
-        <v>57</v>
-      </c>
-      <c r="C356">
-        <v>0</v>
-      </c>
-      <c r="D356">
-        <v>431.33</v>
-      </c>
-      <c r="E356">
-        <v>431820.3</v>
-      </c>
-      <c r="G356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A357">
-        <v>4</v>
-      </c>
-      <c r="B357">
-        <v>58</v>
-      </c>
-      <c r="C357">
-        <v>0</v>
-      </c>
-      <c r="D357">
-        <v>470.78</v>
-      </c>
-      <c r="E357">
-        <v>471265.97</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
-      <c r="G357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A358">
-        <v>4</v>
-      </c>
-      <c r="B358">
-        <v>59</v>
-      </c>
-      <c r="C358">
-        <v>0</v>
-      </c>
-      <c r="D358">
-        <v>512.44000000000005</v>
-      </c>
-      <c r="E358">
-        <v>512978.73</v>
-      </c>
-      <c r="G358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <v>4</v>
-      </c>
-      <c r="B359">
-        <v>60</v>
-      </c>
-      <c r="C359">
-        <v>0</v>
-      </c>
-      <c r="D359">
-        <v>540.74</v>
-      </c>
-      <c r="E359">
-        <v>541232.87</v>
-      </c>
-      <c r="F359">
-        <v>0</v>
-      </c>
-      <c r="G359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A360">
-        <v>4</v>
-      </c>
-      <c r="B360">
-        <v>61</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
-      </c>
-      <c r="D360">
-        <v>533.64</v>
-      </c>
-      <c r="E360">
-        <v>534100.38</v>
-      </c>
-      <c r="G360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A361">
-        <v>4</v>
-      </c>
-      <c r="B361">
-        <v>62</v>
-      </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
-      <c r="D361">
-        <v>586.4</v>
-      </c>
-      <c r="E361">
-        <v>586917.48</v>
-      </c>
-      <c r="F361">
-        <v>0</v>
-      </c>
-      <c r="G361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>4</v>
-      </c>
-      <c r="B362">
-        <v>63</v>
-      </c>
-      <c r="C362">
-        <v>0</v>
-      </c>
-      <c r="D362">
-        <v>614.09</v>
-      </c>
-      <c r="E362">
-        <v>614607.80000000005</v>
-      </c>
-      <c r="G362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363">
-        <v>4</v>
-      </c>
-      <c r="B363">
-        <v>64</v>
-      </c>
-      <c r="C363">
-        <v>0</v>
-      </c>
-      <c r="D363">
-        <v>629.6</v>
-      </c>
-      <c r="E363">
-        <v>630102.11</v>
-      </c>
-      <c r="F363">
-        <v>0</v>
-      </c>
-      <c r="G363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364">
-        <v>4</v>
-      </c>
-      <c r="B364">
-        <v>65</v>
-      </c>
-      <c r="C364">
-        <v>0</v>
-      </c>
-      <c r="D364">
-        <v>675.95</v>
-      </c>
-      <c r="E364">
-        <v>676457.59</v>
-      </c>
-      <c r="G364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>4</v>
-      </c>
-      <c r="B365">
-        <v>66</v>
-      </c>
-      <c r="C365">
-        <v>0</v>
-      </c>
-      <c r="D365">
-        <v>723.85</v>
-      </c>
-      <c r="E365">
-        <v>724367.98</v>
-      </c>
-      <c r="F365">
-        <v>0</v>
-      </c>
-      <c r="G365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366">
-        <v>4</v>
-      </c>
-      <c r="B366">
-        <v>67</v>
-      </c>
-      <c r="C366">
-        <v>0</v>
-      </c>
-      <c r="D366">
-        <v>708.07</v>
-      </c>
-      <c r="E366">
-        <v>708573.21</v>
-      </c>
-      <c r="G366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A367">
-        <v>4</v>
-      </c>
-      <c r="B367">
-        <v>68</v>
-      </c>
-      <c r="C367">
-        <v>0</v>
-      </c>
-      <c r="D367">
-        <v>781.98</v>
-      </c>
-      <c r="E367">
-        <v>782461.87</v>
-      </c>
-      <c r="F367">
-        <v>0</v>
-      </c>
-      <c r="G367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A368">
-        <v>4</v>
-      </c>
-      <c r="B368">
-        <v>69</v>
-      </c>
-      <c r="C368">
-        <v>0</v>
-      </c>
-      <c r="D368">
-        <v>730.95</v>
-      </c>
-      <c r="E368">
-        <v>731444.15</v>
-      </c>
-      <c r="G368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A369">
-        <v>4</v>
-      </c>
-      <c r="B369">
-        <v>70</v>
-      </c>
-      <c r="C369">
-        <v>0</v>
-      </c>
-      <c r="D369">
-        <v>833.99</v>
-      </c>
-      <c r="E369">
-        <v>834483.03</v>
-      </c>
-      <c r="F369">
-        <v>0</v>
-      </c>
-      <c r="G369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>4</v>
-      </c>
-      <c r="B370">
-        <v>71</v>
-      </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
-      <c r="D370">
-        <v>762.75</v>
-      </c>
-      <c r="E370">
-        <v>763284.02</v>
-      </c>
-      <c r="G370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>4</v>
-      </c>
-      <c r="B371">
-        <v>72</v>
-      </c>
-      <c r="C371">
-        <v>0</v>
-      </c>
-      <c r="D371">
-        <v>923.28</v>
-      </c>
-      <c r="E371">
-        <v>923830.04</v>
-      </c>
-      <c r="F371">
-        <v>0</v>
-      </c>
-      <c r="G371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>4</v>
-      </c>
-      <c r="B372">
-        <v>73</v>
-      </c>
-      <c r="C372">
-        <v>0</v>
-      </c>
-      <c r="D372">
-        <v>911.86</v>
-      </c>
-      <c r="E372">
-        <v>912356.79</v>
-      </c>
-      <c r="G372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>4</v>
-      </c>
-      <c r="B373">
-        <v>74</v>
-      </c>
-      <c r="C373">
-        <v>0</v>
-      </c>
-      <c r="D373">
-        <v>938.45</v>
-      </c>
-      <c r="E373">
-        <v>939000.01</v>
-      </c>
-      <c r="F373">
-        <v>0</v>
-      </c>
-      <c r="G373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>4</v>
-      </c>
-      <c r="B374">
-        <v>75</v>
-      </c>
-      <c r="C374">
-        <v>0</v>
-      </c>
-      <c r="D374">
-        <v>917.42</v>
-      </c>
-      <c r="E374">
-        <v>917905.57</v>
-      </c>
-      <c r="G374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>4</v>
-      </c>
-      <c r="B375">
-        <v>76</v>
-      </c>
-      <c r="C375">
-        <v>0</v>
-      </c>
-      <c r="D375">
-        <v>1176.33</v>
-      </c>
-      <c r="E375">
-        <v>1176831.6399999999</v>
-      </c>
-      <c r="F375">
-        <v>0</v>
-      </c>
-      <c r="G375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>4</v>
-      </c>
-      <c r="B376">
-        <v>77</v>
-      </c>
-      <c r="C376">
-        <v>0</v>
-      </c>
-      <c r="D376">
-        <v>1286.71</v>
-      </c>
-      <c r="E376">
-        <v>1287204.44</v>
-      </c>
-      <c r="G376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>4</v>
-      </c>
-      <c r="B377">
-        <v>78</v>
-      </c>
-      <c r="C377">
-        <v>0</v>
-      </c>
-      <c r="D377">
-        <v>1667.11</v>
-      </c>
-      <c r="E377">
-        <v>1667625.23</v>
-      </c>
-      <c r="F377">
-        <v>0</v>
-      </c>
-      <c r="G377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>4</v>
-      </c>
-      <c r="B378">
-        <v>79</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-      <c r="D378">
-        <v>1442.56</v>
-      </c>
-      <c r="E378">
-        <v>1443089.75</v>
-      </c>
-      <c r="G378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>4</v>
-      </c>
-      <c r="B379">
-        <v>80</v>
-      </c>
-      <c r="C379">
-        <v>0</v>
-      </c>
-      <c r="D379">
-        <v>1416.12</v>
-      </c>
-      <c r="E379">
-        <v>1416616.68</v>
-      </c>
-      <c r="F379">
-        <v>0</v>
-      </c>
-      <c r="G379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>4</v>
-      </c>
-      <c r="B380">
-        <v>81</v>
-      </c>
-      <c r="C380">
-        <v>0</v>
-      </c>
-      <c r="D380">
-        <v>1110.9000000000001</v>
-      </c>
-      <c r="E380">
-        <v>1111315.75</v>
-      </c>
-      <c r="G380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>4</v>
-      </c>
-      <c r="B381">
-        <v>82</v>
-      </c>
-      <c r="C381">
-        <v>0</v>
-      </c>
-      <c r="D381">
-        <v>1264.8599999999999</v>
-      </c>
-      <c r="E381">
-        <v>1265361.24</v>
-      </c>
-      <c r="F381">
-        <v>0</v>
-      </c>
-      <c r="G381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A382">
-        <v>4</v>
-      </c>
-      <c r="B382">
-        <v>83</v>
-      </c>
-      <c r="C382">
-        <v>0</v>
-      </c>
-      <c r="D382">
-        <v>1850.7</v>
-      </c>
-      <c r="E382">
-        <v>1851187.666666667</v>
-      </c>
-      <c r="G382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>4</v>
-      </c>
-      <c r="B383">
-        <v>84</v>
-      </c>
-      <c r="C383">
-        <v>0</v>
-      </c>
-      <c r="D383">
-        <v>2001.19</v>
-      </c>
-      <c r="E383">
-        <v>2001713.27</v>
-      </c>
-      <c r="F383">
-        <v>0</v>
-      </c>
-      <c r="G383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>4</v>
-      </c>
-      <c r="B384">
-        <v>85</v>
-      </c>
-      <c r="C384">
-        <v>0</v>
-      </c>
-      <c r="D384">
-        <v>1743.34</v>
-      </c>
-      <c r="E384">
-        <v>1743839.67</v>
-      </c>
-      <c r="G384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>4</v>
-      </c>
-      <c r="B385">
-        <v>86</v>
-      </c>
-      <c r="C385">
-        <v>0</v>
-      </c>
-      <c r="D385">
-        <v>1905.17</v>
-      </c>
-      <c r="E385">
-        <v>1905652.18</v>
-      </c>
-      <c r="F385">
-        <v>0</v>
-      </c>
-      <c r="G385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A386">
-        <v>4</v>
-      </c>
-      <c r="B386">
-        <v>87</v>
-      </c>
-      <c r="C386">
-        <v>0</v>
-      </c>
-      <c r="D386">
-        <v>1833.56</v>
-      </c>
-      <c r="E386">
-        <v>1834064.46</v>
-      </c>
-      <c r="G386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <v>4</v>
-      </c>
-      <c r="B387">
-        <v>88</v>
-      </c>
-      <c r="C387">
-        <v>0</v>
-      </c>
-      <c r="D387">
-        <v>2040.67</v>
-      </c>
-      <c r="E387">
-        <v>2041155.74</v>
-      </c>
-      <c r="F387">
-        <v>0</v>
-      </c>
-      <c r="G387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>4</v>
-      </c>
-      <c r="B388">
-        <v>89</v>
-      </c>
-      <c r="C388">
-        <v>0</v>
-      </c>
-      <c r="D388">
-        <v>1798.6</v>
-      </c>
-      <c r="E388">
-        <v>1799059.24</v>
-      </c>
-      <c r="G388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A389">
-        <v>4</v>
-      </c>
-      <c r="B389">
-        <v>90</v>
-      </c>
-      <c r="C389">
-        <v>0</v>
-      </c>
-      <c r="D389">
-        <v>1527.02</v>
-      </c>
-      <c r="E389">
-        <v>1527480.09</v>
-      </c>
-      <c r="F389">
-        <v>0</v>
-      </c>
-      <c r="G389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A390">
-        <v>4</v>
-      </c>
-      <c r="B390">
-        <v>91</v>
-      </c>
-      <c r="C390">
-        <v>0</v>
-      </c>
-      <c r="D390">
-        <v>1828.17</v>
-      </c>
-      <c r="E390">
-        <v>1828663.03</v>
-      </c>
-      <c r="G390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A391">
-        <v>4</v>
-      </c>
-      <c r="B391">
-        <v>92</v>
-      </c>
-      <c r="C391">
-        <v>0</v>
-      </c>
-      <c r="D391">
-        <v>2003.17</v>
-      </c>
-      <c r="E391">
-        <v>2003680.7</v>
-      </c>
-      <c r="F391">
-        <v>0</v>
-      </c>
-      <c r="G391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A392">
-        <v>4</v>
-      </c>
-      <c r="B392">
-        <v>93</v>
-      </c>
-      <c r="C392">
-        <v>0</v>
-      </c>
-      <c r="D392">
-        <v>1708.46</v>
-      </c>
-      <c r="E392">
-        <v>1708947.41</v>
-      </c>
-      <c r="G392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A393">
-        <v>4</v>
-      </c>
-      <c r="B393">
-        <v>94</v>
-      </c>
-      <c r="C393">
-        <v>0</v>
-      </c>
-      <c r="D393">
-        <v>1826.55</v>
-      </c>
-      <c r="E393">
-        <v>1827025.12</v>
-      </c>
-      <c r="F393">
-        <v>0</v>
-      </c>
-      <c r="G393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A394">
-        <v>4</v>
-      </c>
-      <c r="B394">
-        <v>95</v>
-      </c>
-      <c r="C394">
-        <v>0</v>
-      </c>
-      <c r="D394">
-        <v>1789.54</v>
-      </c>
-      <c r="E394">
-        <v>1790059.13</v>
-      </c>
-      <c r="G394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A395">
-        <v>4</v>
-      </c>
-      <c r="B395">
-        <v>96</v>
-      </c>
-      <c r="C395">
-        <v>0</v>
-      </c>
-      <c r="D395">
-        <v>1745.89</v>
-      </c>
-      <c r="E395">
-        <v>1746388.07</v>
-      </c>
-      <c r="F395">
-        <v>0</v>
-      </c>
-      <c r="G395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A396">
-        <v>4</v>
-      </c>
-      <c r="B396">
-        <v>97</v>
-      </c>
-      <c r="C396">
-        <v>0</v>
-      </c>
-      <c r="D396">
-        <v>1895.1</v>
-      </c>
-      <c r="E396">
-        <v>1895560.59</v>
-      </c>
-      <c r="G396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A397">
-        <v>4</v>
-      </c>
-      <c r="B397">
-        <v>98</v>
-      </c>
-      <c r="C397">
-        <v>0</v>
-      </c>
-      <c r="D397">
-        <v>1989.5</v>
-      </c>
-      <c r="E397">
-        <v>1990036.72</v>
-      </c>
-      <c r="F397">
-        <v>0</v>
-      </c>
-      <c r="G397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A398">
-        <v>4</v>
-      </c>
-      <c r="B398">
-        <v>99</v>
-      </c>
-      <c r="C398">
-        <v>0</v>
-      </c>
-      <c r="D398">
-        <v>2040.67</v>
-      </c>
-      <c r="E398">
-        <v>2041197.17</v>
-      </c>
-      <c r="G398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A399">
-        <v>5</v>
-      </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-      <c r="C399">
-        <v>1</v>
-      </c>
-      <c r="D399">
-        <v>0</v>
-      </c>
-      <c r="E399">
-        <v>7.31</v>
-      </c>
-      <c r="G399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A400">
-        <v>5</v>
-      </c>
-      <c r="B400">
-        <v>2</v>
-      </c>
-      <c r="C400">
-        <v>1</v>
-      </c>
-      <c r="D400">
-        <v>0</v>
-      </c>
-      <c r="E400">
-        <v>31.12</v>
-      </c>
-      <c r="F400">
-        <v>1</v>
-      </c>
-      <c r="G400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A401">
-        <v>5</v>
-      </c>
-      <c r="B401">
-        <v>3</v>
-      </c>
-      <c r="C401">
-        <v>0.99</v>
-      </c>
-      <c r="D401">
-        <v>0</v>
-      </c>
-      <c r="E401">
-        <v>128.59</v>
-      </c>
-      <c r="G401">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>5</v>
-      </c>
-      <c r="B402">
-        <v>4</v>
-      </c>
-      <c r="C402">
-        <v>0.8</v>
-      </c>
-      <c r="D402">
-        <v>0.02</v>
-      </c>
-      <c r="E402">
-        <v>384.17</v>
-      </c>
-      <c r="F402">
-        <v>0.78431372549019607</v>
-      </c>
-      <c r="G402">
-        <v>0.81632653061224492</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>5</v>
-      </c>
-      <c r="B403">
-        <v>5</v>
-      </c>
-      <c r="C403">
-        <v>0.26</v>
-      </c>
-      <c r="D403">
-        <v>0.22</v>
-      </c>
-      <c r="E403">
-        <v>1017.99</v>
-      </c>
-      <c r="G403">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>5</v>
-      </c>
-      <c r="B404">
-        <v>6</v>
-      </c>
-      <c r="C404">
-        <v>0.05</v>
-      </c>
-      <c r="D404">
-        <v>1.84</v>
-      </c>
-      <c r="E404">
-        <v>2251.5300000000002</v>
-      </c>
-      <c r="F404">
-        <v>4.0816326530612242E-2</v>
-      </c>
-      <c r="G404">
-        <v>5.8823529411764712E-2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>5</v>
-      </c>
-      <c r="B405">
-        <v>7</v>
-      </c>
-      <c r="C405">
-        <v>0</v>
-      </c>
-      <c r="D405">
-        <v>3.84</v>
-      </c>
-      <c r="E405">
-        <v>4405</v>
-      </c>
-      <c r="G405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>5</v>
-      </c>
-      <c r="B406">
-        <v>8</v>
-      </c>
-      <c r="C406">
-        <v>0</v>
-      </c>
-      <c r="D406">
-        <v>7.37</v>
-      </c>
-      <c r="E406">
-        <v>7860.66</v>
-      </c>
-      <c r="F406">
-        <v>0</v>
-      </c>
-      <c r="G406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>5</v>
-      </c>
-      <c r="B407">
-        <v>9</v>
-      </c>
-      <c r="C407">
-        <v>0</v>
-      </c>
-      <c r="D407">
-        <v>13.02</v>
-      </c>
-      <c r="E407">
-        <v>13480.98</v>
-      </c>
-      <c r="G407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>5</v>
-      </c>
-      <c r="B408">
-        <v>10</v>
-      </c>
-      <c r="C408">
-        <v>0</v>
-      </c>
-      <c r="D408">
-        <v>21.03</v>
-      </c>
-      <c r="E408">
-        <v>21528.9</v>
-      </c>
-      <c r="F408">
-        <v>0</v>
-      </c>
-      <c r="G408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>5</v>
-      </c>
-      <c r="B409">
-        <v>11</v>
-      </c>
-      <c r="C409">
-        <v>0</v>
-      </c>
-      <c r="D409">
-        <v>33.04</v>
-      </c>
-      <c r="E409">
-        <v>33511.22</v>
-      </c>
-      <c r="G409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>5</v>
-      </c>
-      <c r="B410">
-        <v>12</v>
-      </c>
-      <c r="C410">
-        <v>0</v>
-      </c>
-      <c r="D410">
-        <v>50.16</v>
-      </c>
-      <c r="E410">
-        <v>50623.51</v>
-      </c>
-      <c r="F410">
-        <v>0</v>
-      </c>
-      <c r="G410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>5</v>
-      </c>
-      <c r="B411">
-        <v>13</v>
-      </c>
-      <c r="C411">
-        <v>0</v>
-      </c>
-      <c r="D411">
-        <v>70.53</v>
-      </c>
-      <c r="E411">
-        <v>71025.34</v>
-      </c>
-      <c r="G411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>5</v>
-      </c>
-      <c r="B412">
-        <v>14</v>
-      </c>
-      <c r="C412">
-        <v>0</v>
-      </c>
-      <c r="D412">
-        <v>100.91</v>
-      </c>
-      <c r="E412">
-        <v>101435.8</v>
-      </c>
-      <c r="F412">
-        <v>0</v>
-      </c>
-      <c r="G412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>5</v>
-      </c>
-      <c r="B413">
-        <v>15</v>
-      </c>
-      <c r="C413">
-        <v>0</v>
-      </c>
-      <c r="D413">
-        <v>139.04</v>
-      </c>
-      <c r="E413">
-        <v>139537.47</v>
-      </c>
-      <c r="G413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>5</v>
-      </c>
-      <c r="B414">
-        <v>16</v>
-      </c>
-      <c r="C414">
-        <v>0</v>
-      </c>
-      <c r="D414">
-        <v>186.92</v>
-      </c>
-      <c r="E414">
-        <v>187421.29</v>
-      </c>
-      <c r="F414">
-        <v>0</v>
-      </c>
-      <c r="G414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>5</v>
-      </c>
-      <c r="B415">
-        <v>17</v>
-      </c>
-      <c r="C415">
-        <v>0</v>
-      </c>
-      <c r="D415">
-        <v>256.62</v>
-      </c>
-      <c r="E415">
-        <v>257119.08</v>
-      </c>
-      <c r="G415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>5</v>
-      </c>
-      <c r="B416">
-        <v>18</v>
-      </c>
-      <c r="C416">
-        <v>0</v>
-      </c>
-      <c r="D416">
-        <v>331.23</v>
-      </c>
-      <c r="E416">
-        <v>331733.76000000001</v>
-      </c>
-      <c r="F416">
-        <v>0</v>
-      </c>
-      <c r="G416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>5</v>
-      </c>
-      <c r="B417">
-        <v>19</v>
-      </c>
-      <c r="C417">
-        <v>0</v>
-      </c>
-      <c r="D417">
-        <v>433.46</v>
-      </c>
-      <c r="E417">
-        <v>433972.7</v>
-      </c>
-      <c r="G417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>5</v>
-      </c>
-      <c r="B418">
-        <v>20</v>
-      </c>
-      <c r="C418">
-        <v>0</v>
-      </c>
-      <c r="D418">
-        <v>542.91</v>
-      </c>
-      <c r="E418">
-        <v>543436.75</v>
-      </c>
-      <c r="F418">
-        <v>0</v>
-      </c>
-      <c r="G418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>5</v>
-      </c>
-      <c r="B419">
-        <v>21</v>
-      </c>
-      <c r="C419">
-        <v>0</v>
-      </c>
-      <c r="D419">
-        <v>677.1</v>
-      </c>
-      <c r="E419">
-        <v>677572.85</v>
-      </c>
-      <c r="G419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>5</v>
-      </c>
-      <c r="B420">
-        <v>22</v>
-      </c>
-      <c r="C420">
-        <v>0</v>
-      </c>
-      <c r="D420">
-        <v>855.65</v>
-      </c>
-      <c r="E420">
-        <v>856153.72</v>
-      </c>
-      <c r="F420">
-        <v>0</v>
-      </c>
-      <c r="G420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>5</v>
-      </c>
-      <c r="B421">
-        <v>23</v>
-      </c>
-      <c r="C421">
-        <v>0</v>
-      </c>
-      <c r="D421">
-        <v>1046.51</v>
-      </c>
-      <c r="E421">
-        <v>1046981.08</v>
-      </c>
-      <c r="G421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>5</v>
-      </c>
-      <c r="B422">
-        <v>24</v>
-      </c>
-      <c r="C422">
-        <v>0</v>
-      </c>
-      <c r="D422">
-        <v>1291.6199999999999</v>
-      </c>
-      <c r="E422">
-        <v>1292096.96</v>
-      </c>
-      <c r="F422">
-        <v>0</v>
-      </c>
-      <c r="G422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>5</v>
-      </c>
-      <c r="B423">
-        <v>25</v>
-      </c>
-      <c r="C423">
-        <v>0</v>
-      </c>
-      <c r="D423">
-        <v>1511.22</v>
-      </c>
-      <c r="E423">
-        <v>1511760.47</v>
-      </c>
-      <c r="G423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>5</v>
-      </c>
-      <c r="B424">
-        <v>26</v>
-      </c>
-      <c r="C424">
-        <v>0</v>
-      </c>
-      <c r="D424">
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="E424">
-        <v>164.64864864864859</v>
-      </c>
-      <c r="F424">
-        <v>0</v>
-      </c>
-      <c r="G424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>5</v>
-      </c>
-      <c r="B425">
-        <v>27</v>
-      </c>
-      <c r="C425">
-        <v>0</v>
-      </c>
-      <c r="D425">
-        <v>0</v>
-      </c>
-      <c r="E425">
-        <v>120.48888888888889</v>
-      </c>
-      <c r="G425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>5</v>
-      </c>
-      <c r="B426">
-        <v>28</v>
-      </c>
-      <c r="C426">
-        <v>0</v>
-      </c>
-      <c r="D426">
-        <v>0</v>
-      </c>
-      <c r="E426">
-        <v>116.64102564102561</v>
-      </c>
-      <c r="F426">
-        <v>0</v>
-      </c>
-      <c r="G426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>5</v>
-      </c>
-      <c r="B427">
-        <v>29</v>
-      </c>
-      <c r="C427">
-        <v>0</v>
-      </c>
-      <c r="D427">
-        <v>0</v>
-      </c>
-      <c r="E427">
-        <v>132.75471698113211</v>
-      </c>
-      <c r="G427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>5</v>
-      </c>
-      <c r="B428">
-        <v>30</v>
-      </c>
-      <c r="C428">
-        <v>0</v>
-      </c>
-      <c r="D428">
-        <v>0</v>
-      </c>
-      <c r="E428">
-        <v>119.97872340425531</v>
-      </c>
-      <c r="F428">
-        <v>0</v>
-      </c>
-      <c r="G428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>5</v>
-      </c>
-      <c r="B429">
-        <v>31</v>
-      </c>
-      <c r="C429">
-        <v>0</v>
-      </c>
-      <c r="D429">
-        <v>0</v>
-      </c>
-      <c r="E429">
-        <v>151.45614035087721</v>
-      </c>
-      <c r="G429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>5</v>
-      </c>
-      <c r="B430">
-        <v>32</v>
-      </c>
-      <c r="C430">
-        <v>0</v>
-      </c>
-      <c r="D430">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E430">
-        <v>209.3125</v>
-      </c>
-      <c r="F430">
-        <v>0</v>
-      </c>
-      <c r="G430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>5</v>
-      </c>
-      <c r="B431">
-        <v>33</v>
-      </c>
-      <c r="C431">
-        <v>0</v>
-      </c>
-      <c r="D431">
-        <v>0</v>
-      </c>
-      <c r="E431">
-        <v>102.8679245283019</v>
-      </c>
-      <c r="G431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>5</v>
-      </c>
-      <c r="B432">
-        <v>34</v>
-      </c>
-      <c r="C432">
-        <v>0</v>
-      </c>
-      <c r="D432">
-        <v>0</v>
-      </c>
-      <c r="E432">
-        <v>96.224137931034477</v>
-      </c>
-      <c r="F432">
-        <v>0</v>
-      </c>
-      <c r="G432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>5</v>
-      </c>
-      <c r="B433">
-        <v>35</v>
-      </c>
-      <c r="C433">
-        <v>0</v>
-      </c>
-      <c r="D433">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E433">
-        <v>176.52083333333329</v>
-      </c>
-      <c r="G433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>5</v>
-      </c>
-      <c r="B434">
-        <v>36</v>
-      </c>
-      <c r="C434">
-        <v>0</v>
-      </c>
-      <c r="D434">
-        <v>0</v>
-      </c>
-      <c r="E434">
-        <v>110.8936170212766</v>
-      </c>
-      <c r="F434">
-        <v>0</v>
-      </c>
-      <c r="G434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A435">
-        <v>5</v>
-      </c>
-      <c r="B435">
-        <v>37</v>
-      </c>
-      <c r="C435">
-        <v>0</v>
-      </c>
-      <c r="D435">
-        <v>0</v>
-      </c>
-      <c r="E435">
-        <v>105.7916666666667</v>
-      </c>
-      <c r="G435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A436">
-        <v>5</v>
-      </c>
-      <c r="B436">
-        <v>38</v>
-      </c>
-      <c r="C436">
-        <v>0</v>
-      </c>
-      <c r="D436">
-        <v>3.8461538461538457E-2</v>
-      </c>
-      <c r="E436">
-        <v>113</v>
-      </c>
-      <c r="F436">
-        <v>0</v>
-      </c>
-      <c r="G436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A437">
-        <v>5</v>
-      </c>
-      <c r="B437">
-        <v>39</v>
-      </c>
-      <c r="C437">
-        <v>0</v>
-      </c>
-      <c r="D437">
-        <v>0</v>
-      </c>
-      <c r="E437">
-        <v>78.714285714285708</v>
-      </c>
-      <c r="G437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A438">
-        <v>5</v>
-      </c>
-      <c r="B438">
-        <v>40</v>
-      </c>
-      <c r="C438">
-        <v>0</v>
-      </c>
-      <c r="D438">
-        <v>0</v>
-      </c>
-      <c r="E438">
-        <v>68</v>
-      </c>
-      <c r="F438">
-        <v>0</v>
-      </c>
-      <c r="G438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>5</v>
-      </c>
-      <c r="B439">
-        <v>41</v>
-      </c>
-      <c r="C439">
-        <v>0</v>
-      </c>
-      <c r="D439">
-        <v>0</v>
-      </c>
-      <c r="E439">
-        <v>59.54054054054054</v>
-      </c>
-      <c r="G439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>5</v>
-      </c>
-      <c r="B440">
-        <v>42</v>
-      </c>
-      <c r="C440">
-        <v>0</v>
-      </c>
-      <c r="D440">
-        <v>0</v>
-      </c>
-      <c r="E440">
-        <v>66.875</v>
-      </c>
-      <c r="F440">
-        <v>0</v>
-      </c>
-      <c r="G440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A441">
-        <v>5</v>
-      </c>
-      <c r="B441">
-        <v>43</v>
-      </c>
-      <c r="C441">
-        <v>0</v>
-      </c>
-      <c r="D441">
-        <v>0</v>
-      </c>
-      <c r="E441">
-        <v>65.042553191489361</v>
-      </c>
-      <c r="G441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A442">
-        <v>5</v>
-      </c>
-      <c r="B442">
-        <v>44</v>
-      </c>
-      <c r="C442">
-        <v>0</v>
-      </c>
-      <c r="D442">
-        <v>0</v>
-      </c>
-      <c r="E442">
-        <v>70.857142857142861</v>
-      </c>
-      <c r="F442">
-        <v>0</v>
-      </c>
-      <c r="G442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A443">
-        <v>5</v>
-      </c>
-      <c r="B443">
-        <v>45</v>
-      </c>
-      <c r="C443">
-        <v>0</v>
-      </c>
-      <c r="D443">
-        <v>0</v>
-      </c>
-      <c r="E443">
-        <v>69.688888888888883</v>
-      </c>
-      <c r="G443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A444">
-        <v>5</v>
-      </c>
-      <c r="B444">
-        <v>46</v>
-      </c>
-      <c r="C444">
-        <v>0</v>
-      </c>
-      <c r="D444">
-        <v>0</v>
-      </c>
-      <c r="E444">
-        <v>52.14</v>
-      </c>
-      <c r="F444">
-        <v>0</v>
-      </c>
-      <c r="G444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A445">
-        <v>5</v>
-      </c>
-      <c r="B445">
-        <v>47</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445">
-        <v>0</v>
-      </c>
-      <c r="E445">
-        <v>60.315789473684212</v>
-      </c>
-      <c r="G445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A446">
-        <v>5</v>
-      </c>
-      <c r="B446">
-        <v>48</v>
-      </c>
-      <c r="C446">
-        <v>0</v>
-      </c>
-      <c r="D446">
-        <v>0</v>
-      </c>
-      <c r="E446">
-        <v>62.51063829787234</v>
-      </c>
-      <c r="F446">
-        <v>0</v>
-      </c>
-      <c r="G446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A447">
-        <v>5</v>
-      </c>
-      <c r="B447">
-        <v>49</v>
-      </c>
-      <c r="C447">
-        <v>0</v>
-      </c>
-      <c r="D447">
-        <v>0</v>
-      </c>
-      <c r="E447">
-        <v>45.69047619047619</v>
-      </c>
-      <c r="G447">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G448">
-    <sortCondition ref="A1:A448"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G349">
+    <sortCondition ref="A1:A349"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>